--- a/input_csv/08_Prozessor_Intel/artikel.xlsx
+++ b/input_csv/08_Prozessor_Intel/artikel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico.Brosowski\Desktop\____Apps___\JTL_Apps\Open_AI_Searcher\input_csv\08_Prozessor_Intel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7591079-15B7-4739-B4BB-11D81E7A7049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13845340-2A47-457A-971D-DD73076A27CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{464F9A3E-2865-43B4-8397-620C4A9C84E8}"/>
   </bookViews>
@@ -902,7 +902,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/input_csv/08_Prozessor_Intel/artikel.xlsx
+++ b/input_csv/08_Prozessor_Intel/artikel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico.Brosowski\Desktop\____Apps___\JTL_Apps\Open_AI_Searcher\input_csv\08_Prozessor_Intel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13845340-2A47-457A-971D-DD73076A27CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAAAC8F-5C87-44AF-B95C-3907403985AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{464F9A3E-2865-43B4-8397-620C4A9C84E8}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Artikelname</t>
   </si>
@@ -31,20 +31,47 @@
     <t>GTIN</t>
   </si>
   <si>
-    <t>Intel Core i9-12900K - 8x 3.20GHz + 8x 2.40GHz (Turbotakt bis 5.2GHz)</t>
-  </si>
-  <si>
-    <t>5,03204E+12</t>
-  </si>
-  <si>
-    <t>Intel Core i9-14900F - 8x 2.00GHz + 16x 1.50GHz (Turbotakt bis 5.8GHz)</t>
+    <t>Intel Core Ultra 5 225</t>
+  </si>
+  <si>
+    <t>Intel Core Ultra 5 225F</t>
+  </si>
+  <si>
+    <t>Intel Core Ultra 5 235</t>
+  </si>
+  <si>
+    <t>Intel Core Ultra 5 245</t>
+  </si>
+  <si>
+    <t>Intel Core Ultra 5 245K</t>
+  </si>
+  <si>
+    <t>Intel Core Ultra 5 245KF</t>
+  </si>
+  <si>
+    <t>Intel Core Ultra 7 265</t>
+  </si>
+  <si>
+    <t>Intel Core Ultra 7 265F</t>
+  </si>
+  <si>
+    <t>Intel Core Ultra 7 265K</t>
+  </si>
+  <si>
+    <t>Intel Core Ultra 7 265KF</t>
+  </si>
+  <si>
+    <t>Intel Core Ultra 9 285</t>
+  </si>
+  <si>
+    <t>Intel Core Ultra 9 285K</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +202,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -521,9 +555,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -899,14 +934,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB13455D-D46A-46EF-AF11-AF0641D70A1C}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="42" customWidth="1"/>
     <col min="2" max="2" width="66.85546875" customWidth="1"/>
     <col min="3" max="3" width="39.7109375" customWidth="1"/>
   </cols>
@@ -923,25 +959,132 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>103141</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2">
+        <v>106792</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5032037282352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" s="2">
+        <v>106793</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5032037282376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>106388</v>
-      </c>
-      <c r="C3" s="1">
-        <v>5032037279208</v>
+      <c r="B4" s="2">
+        <v>106791</v>
+      </c>
+      <c r="C4">
+        <v>5032037282925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>106790</v>
+      </c>
+      <c r="C5">
+        <v>8592978608040</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>106670</v>
+      </c>
+      <c r="C6">
+        <v>5032037282086</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>106664</v>
+      </c>
+      <c r="C7">
+        <v>5032037282109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>106788</v>
+      </c>
+      <c r="C8">
+        <v>5032037282512</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>106789</v>
+      </c>
+      <c r="C9">
+        <v>8592978611132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>106665</v>
+      </c>
+      <c r="C10">
+        <v>5032037282062</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <v>106666</v>
+      </c>
+      <c r="C11">
+        <v>5032037281980</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>106787</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2">
+        <v>106667</v>
+      </c>
+      <c r="C13">
+        <v>5032037281928</v>
       </c>
     </row>
   </sheetData>
